--- a/supplementary/critical_TF.xlsx
+++ b/supplementary/critical_TF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kh22cho/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41039936-ADF8-D847-BE95-BC7FA8285366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB6EFDF-ECE6-5A40-896D-3420451FBE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22520" yWindow="4820" windowWidth="28100" windowHeight="17380" xr2:uid="{3C64F531-9397-F444-BA37-4A99335C16F4}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20900" xr2:uid="{3C64F531-9397-F444-BA37-4A99335C16F4}"/>
   </bookViews>
   <sheets>
     <sheet name="zebrafish" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Enveloping Layer</t>
   </si>
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>CABZ01070258.1,ETV4,FOXC1A,FOXJ1A,JUN,LHX1A,MEIS1B,MEIS3,MSX3,NR2F6B,OTX2,PAX6A,RARGA,SMAD3A,TFAP2A,XBP1,ZIC2B,ZIC3,ZNF503</t>
+  </si>
+  <si>
+    <t>critical edge count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -650,364 +654,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB36A17-686A-5846-B9B5-43027A84B93E}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1">
+    <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1">
+    <row r="7" spans="1:4">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1">
+    <row r="8" spans="1:4">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1">
+    <row r="9" spans="1:4">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1">
+    <row r="10" spans="1:4">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1">
+    <row r="11" spans="1:4">
       <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1">
+    <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1">
+    <row r="14" spans="1:4">
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1">
+    <row r="15" spans="1:4">
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1">
+    <row r="16" spans="1:4">
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1">
+    <row r="17" spans="1:4">
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1">
+    <row r="18" spans="1:4">
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1">
+    <row r="19" spans="1:4">
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1">
+    <row r="21" spans="1:4">
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1">
+    <row r="22" spans="1:4">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1">
+    <row r="23" spans="1:4">
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="1">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1">
+    <row r="24" spans="1:4">
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1">
+    <row r="25" spans="1:4">
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="1">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1">
+    <row r="26" spans="1:4">
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1">
+    <row r="27" spans="1:4">
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="1">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1">
+    <row r="28" spans="1:4">
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1">
+    <row r="30" spans="1:4">
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1">
+    <row r="31" spans="1:4">
       <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="1">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1">
+    <row r="32" spans="1:4">
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="1">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:3" s="1" customFormat="1">
+    <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="1">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:3" s="1" customFormat="1">
+    <row r="34" spans="2:4">
       <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="1">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:3" s="1" customFormat="1">
+    <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:3" s="1" customFormat="1">
+    <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="1">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:3" s="1" customFormat="1">
+    <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="1">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:3" s="1" customFormat="1">
+    <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="1">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:3" s="1" customFormat="1">
+    <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="1">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:3" s="1" customFormat="1">
+    <row r="40" spans="2:4">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:3" s="1" customFormat="1">
+    <row r="41" spans="2:4">
       <c r="B41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:3" s="1" customFormat="1">
+    <row r="42" spans="2:4">
       <c r="B42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:3" s="1" customFormat="1">
+    <row r="43" spans="2:4">
       <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:3" s="1" customFormat="1">
+    <row r="44" spans="2:4">
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="2:3" s="1" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
